--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1535.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1535.xlsx
@@ -351,10 +351,10 @@
         <v>1.646676566801618</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.166012215245102</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1535.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1535.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.646676566801618</v>
+        <v>1.489076256752014</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.819122314453125</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.931576728820801</v>
       </c>
       <c r="D1">
-        <v>1.166012215245102</v>
+        <v>1.745533466339111</v>
       </c>
       <c r="E1">
-        <v>0.6838582034401105</v>
+        <v>0.8950828313827515</v>
       </c>
     </row>
   </sheetData>
